--- a/_CONCAT_DOWNER.xlsx
+++ b/_CONCAT_DOWNER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE2730-3F5E-4A7E-B972-D66C4390B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD15981-33EC-4EA8-B12A-410EF24FDEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="960" windowWidth="29010" windowHeight="19710" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="9300" yWindow="1545" windowWidth="29100" windowHeight="19440" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,52 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Prior to sealing</t>
+  </si>
+  <si>
+    <t>Test Report</t>
+  </si>
+  <si>
+    <t>For a Chip Sealed Surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS 21.4.1 </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,12 +94,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,8 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,20 +448,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>A2</f>
+        <v>For a Chip Sealed Surface</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>"Acceptance / Conformance Criteria -  "&amp;B2</f>
+        <v xml:space="preserve">Acceptance / Conformance Criteria -  Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km. </v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f>"Standard / Specification - "&amp;C2</f>
+        <v xml:space="preserve">Standard / Specification - PS 21.4.1 </v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f>"Verifying Document - "&amp;D2</f>
+        <v>Verifying Document - Test Report</v>
+      </c>
+      <c r="M2" s="3" t="str">
+        <f>"Frequency - "&amp;E2</f>
+        <v>Frequency - Prior to sealing</v>
+      </c>
+      <c r="N2" s="3" t="str">
+        <f>"Verification Activity: Activity - "&amp;F2</f>
+        <v>Verification Activity: Activity - HP</v>
+      </c>
+      <c r="O2" s="3" t="str">
+        <f>"Verification Activity: By - "&amp;G2</f>
+        <v>Verification Activity: By - ENG</v>
+      </c>
+      <c r="Q2" s="3" t="str" cm="1">
+        <f t="array" ref="Q2:Q8">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,I2:O40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>For a Chip Sealed Surface</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="Q3" s="3" t="str">
+        <v>Acceptance / Conformance Criteria -  Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="Q4" s="3" t="str">
+        <v>Standard / Specification - PS 21.4.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="Q5" s="3" t="str">
+        <v>Verifying Document - Test Report</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="Q6" s="3" t="str">
+        <v>Frequency - Prior to sealing</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="Q7" s="3" t="str">
+        <v>Verification Activity: Activity - HP</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="Q8" s="3" t="str">
+        <v>Verification Activity: By - ENG</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_CONCAT_DOWNER.xlsx
+++ b/_CONCAT_DOWNER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD15981-33EC-4EA8-B12A-410EF24FDEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E06308-6B22-4A6F-A2C2-8D2AD0061A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1545" windowWidth="29100" windowHeight="19440" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29265" windowHeight="19365" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,14 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -298,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,30 +450,28 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -482,124 +479,124 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" t="str">
         <f>A2</f>
         <v>For a Chip Sealed Surface</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" t="str">
         <f>"Acceptance / Conformance Criteria -  "&amp;B2</f>
         <v xml:space="preserve">Acceptance / Conformance Criteria -  Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km. </v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" t="str">
         <f>"Standard / Specification - "&amp;C2</f>
         <v xml:space="preserve">Standard / Specification - PS 21.4.1 </v>
       </c>
-      <c r="L2" s="3" t="str">
+      <c r="L2" t="str">
         <f>"Verifying Document - "&amp;D2</f>
         <v>Verifying Document - Test Report</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" t="str">
         <f>"Frequency - "&amp;E2</f>
         <v>Frequency - Prior to sealing</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="N2" t="str">
         <f>"Verification Activity: Activity - "&amp;F2</f>
         <v>Verification Activity: Activity - HP</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="O2" t="str">
         <f>"Verification Activity: By - "&amp;G2</f>
         <v>Verification Activity: By - ENG</v>
       </c>
-      <c r="Q2" s="3" t="str" cm="1">
+      <c r="Q2" t="str" cm="1">
         <f t="array" ref="Q2:Q8">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,I2:O40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
         <v>For a Chip Sealed Surface</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="Q3" s="3" t="str">
+      <c r="Q3" t="str">
         <v>Acceptance / Conformance Criteria -  Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km.</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="Q4" s="3" t="str">
+      <c r="Q4" t="str">
         <v>Standard / Specification - PS 21.4.1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" t="str">
         <v>Verifying Document - Test Report</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="Q6" s="3" t="str">
+      <c r="Q6" t="str">
         <v>Frequency - Prior to sealing</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="Q7" s="3" t="str">
+      <c r="Q7" t="str">
         <v>Verification Activity: Activity - HP</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="Q8" s="3" t="str">
+      <c r="Q8" t="str">
         <v>Verification Activity: By - ENG</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
   </sheetData>

--- a/_CONCAT_DOWNER.xlsx
+++ b/_CONCAT_DOWNER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E06308-6B22-4A6F-A2C2-8D2AD0061A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4FF0F-C30D-49C5-AF69-D038ADCE70BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="29265" windowHeight="19365" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="29040" windowHeight="19815" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,29 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>Prior to sealing</t>
-  </si>
-  <si>
-    <t>Test Report</t>
-  </si>
-  <si>
-    <t>For a Chip Sealed Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS 21.4.1 </t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -126,13 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -462,16 +441,17 @@
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -479,125 +459,138 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="str">
-        <f>A2</f>
-        <v>For a Chip Sealed Surface</v>
-      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="J2" t="str">
-        <f>"Acceptance / Conformance Criteria -  "&amp;B2</f>
-        <v xml:space="preserve">Acceptance / Conformance Criteria -  Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km. </v>
+        <f>A2&amp;" - "&amp;B2</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="K2" t="str">
-        <f>"Standard / Specification - "&amp;C2</f>
-        <v xml:space="preserve">Standard / Specification - PS 21.4.1 </v>
+        <f>"Acceptance / Conformance Criteria - "&amp;C2</f>
+        <v xml:space="preserve">Acceptance / Conformance Criteria - </v>
       </c>
       <c r="L2" t="str">
-        <f>"Verifying Document - "&amp;D2</f>
-        <v>Verifying Document - Test Report</v>
+        <f>"Standard / Specification - "&amp;D2</f>
+        <v xml:space="preserve">Standard / Specification - </v>
       </c>
       <c r="M2" t="str">
-        <f>"Frequency - "&amp;E2</f>
-        <v>Frequency - Prior to sealing</v>
+        <f>"Verifying Document - "&amp;E2</f>
+        <v xml:space="preserve">Verifying Document - </v>
       </c>
       <c r="N2" t="str">
-        <f>"Verification Activity: Activity - "&amp;F2</f>
-        <v>Verification Activity: Activity - HP</v>
+        <f>"Frequency - "&amp;F2</f>
+        <v xml:space="preserve">Frequency - </v>
       </c>
       <c r="O2" t="str">
-        <f>"Verification Activity: By - "&amp;G2</f>
-        <v>Verification Activity: By - ENG</v>
-      </c>
-      <c r="Q2" t="str" cm="1">
-        <f t="array" ref="Q2:Q8">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,I2:O40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>For a Chip Sealed Surface</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"Verification Activity: Activity - "&amp;G2</f>
+        <v xml:space="preserve">Verification Activity: Activity - </v>
+      </c>
+      <c r="P2" t="str">
+        <f>"Verification Activity: By - "&amp;H2</f>
+        <v xml:space="preserve">Verification Activity: By - </v>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" ref="R2:R8">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,J2:P40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="Q3" t="str">
-        <v>Acceptance / Conformance Criteria -  Target is an average of 60 NAASRA counts/km for the 100m moving average Maximum 100m moving average of 70 NAASRA counts/km. No 20m reading in any lane shall exceed 100 NAASRA counts/km.</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="R3" t="str">
+        <v>Acceptance / Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="Q4" t="str">
-        <v>Standard / Specification - PS 21.4.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="R4" t="str">
+        <v>Standard / Specification -</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="Q5" t="str">
-        <v>Verifying Document - Test Report</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="R5" t="str">
+        <v>Verifying Document -</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="Q6" t="str">
-        <v>Frequency - Prior to sealing</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="R6" t="str">
+        <v>Frequency -</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="Q7" t="str">
-        <v>Verification Activity: Activity - HP</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="R7" t="str">
+        <v>Verification Activity: Activity -</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="Q8" t="str">
-        <v>Verification Activity: By - ENG</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="R8" t="str">
+        <v>Verification Activity: By -</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="20" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_CONCAT_DOWNER.xlsx
+++ b/_CONCAT_DOWNER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4FF0F-C30D-49C5-AF69-D038ADCE70BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D264F38-DFB3-4F0F-938C-E28445B98371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="29040" windowHeight="19815" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="7470" yWindow="1815" windowWidth="27090" windowHeight="18105" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,10 +55,6 @@
     </bk>
   </cellMetadata>
 </metadata>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -104,14 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +424,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -441,14 +436,15 @@
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="18" max="18" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -467,7 +463,6 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>

--- a/_CONCAT_DOWNER.xlsx
+++ b/_CONCAT_DOWNER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D264F38-DFB3-4F0F-938C-E28445B98371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A872897-8E9F-4CEC-AA90-8EAF1BED3618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="1815" windowWidth="27090" windowHeight="18105" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="105" yWindow="735" windowWidth="27885" windowHeight="19590" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,233 @@
     </bk>
   </cellMetadata>
 </metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+  <si>
+    <t>Material Compliance</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Ensure the supplied paint system meets the requirements as per the specification. .</t>
+  </si>
+  <si>
+    <t>Prior to commencement</t>
+  </si>
+  <si>
+    <t>Document review</t>
+  </si>
+  <si>
+    <t>NZTA S10 Approved paint system to be signed off by the Design Engineer</t>
+  </si>
+  <si>
+    <t>Painting system manufacturers records</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Confirmation of Design life not less than 10 years</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Confirmation of cleaning product (to align with TDS) -  Pressure washing of substrate no greater than 2700psi.</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of names, experience and qualifications of coating applicators </t>
+  </si>
+  <si>
+    <t>NZTA S/10 4.1 c</t>
+  </si>
+  <si>
+    <t>Applicator's detail submission</t>
+  </si>
+  <si>
+    <t>Submit Frequency</t>
+  </si>
+  <si>
+    <t>Subcontractor to produce specification for the extent and frequency of testing for Design Engineer for approval</t>
+  </si>
+  <si>
+    <t>Document submission</t>
+  </si>
+  <si>
+    <t>Approved subcontractor testing schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contruction </t>
+  </si>
+  <si>
+    <t>Visual inspection to ensure it is dust free, clean and repaired prior to application. _x000D_
+_x000D_
+Any fairing coat/grout that is used to achieve the F5 finish will need the required curing time as per product specification.</t>
+  </si>
+  <si>
+    <t>Visual inspection and Document review</t>
+  </si>
+  <si>
+    <t>Ensure PCP and Snag List for the structure are both signed off_x000D_
+_x000D_
+BBO sign off for Pre paint inspection to ensure F5 finish has been achieved</t>
+  </si>
+  <si>
+    <t>Completed PCP CHAR(AMP) Snag List</t>
+  </si>
+  <si>
+    <t>Pre-paint cleaning and substrate verifications</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Demonstration of substrate cleaned all dust, dirt and other surface contaminants must be removed. Using manufacturer’s approved surface cleaner</t>
+  </si>
+  <si>
+    <t>Before painting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual inspection </t>
+  </si>
+  <si>
+    <t>Construction - pre paint checks</t>
+  </si>
+  <si>
+    <t>Pre-paint checks_x000D_
+_x000D_
+Relative Humidity (Measured), Air Temperature (Measured), Surface Temperature (Measured), Dew Point (Calculated) Surface minus Dew Point (Calculated), Dry Surface (Visual Inspection)</t>
+  </si>
+  <si>
+    <t>Measuring Devices</t>
+  </si>
+  <si>
+    <t>QA Checksheets</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Design Engineer to be advised when painting is occuring so they can visit site and do a visual inspection</t>
+  </si>
+  <si>
+    <t>During Painting</t>
+  </si>
+  <si>
+    <t>Visual Inspection</t>
+  </si>
+  <si>
+    <t>_x000D_
+_x000D_
+ Demonstration of surface moisture conditions. -            1 test every 46m² or for every time painting</t>
+  </si>
+  <si>
+    <t>Before painting (minimum 28 days after concrete, grout and fairing coat has cured)</t>
+  </si>
+  <si>
+    <t>NZTA S/10 8.8 refers to ASTM D4263</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>Ensure dust control throughout application and curing. Co-ordinate other site activites that may generate dust to stop until the paint is dry.</t>
+  </si>
+  <si>
+    <t>Before and During painting</t>
+  </si>
+  <si>
+    <t>Visual inspection</t>
+  </si>
+  <si>
+    <t>No dust</t>
+  </si>
+  <si>
+    <t>Ensure subcontractor records the date, type, location and extent of all  coatings</t>
+  </si>
+  <si>
+    <t>Drawings</t>
+  </si>
+  <si>
+    <t>Recoating time as per manufacturers specifications, and weather conditions.</t>
+  </si>
+  <si>
+    <t>After painting</t>
+  </si>
+  <si>
+    <t>Document Review</t>
+  </si>
+  <si>
+    <t>Completed paint system</t>
+  </si>
+  <si>
+    <t>1. Dry Film Thickness_x000D_
+2. Bond Strength</t>
+  </si>
+  <si>
+    <t>14 days after painting</t>
+  </si>
+  <si>
+    <t>NZTA S10 Section 13.2</t>
+  </si>
+  <si>
+    <t>DFT minimum of 100 microns_x000D_
+Bond strength minimum 2MPa</t>
+  </si>
+  <si>
+    <t>IANZ Test Results or other approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post works inspection  with BBO Sign Off_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>At completion of painting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry Film Thickness </t>
+  </si>
+  <si>
+    <t>The completed paint system or coating shall be of uniform thickness, free of runs, sags, pinholes and bubbles, mudcracking, dry overspray, grit inclusion etc. All such imperfections shall be removed or made good to the satisfaction of the Design Engineer.</t>
+  </si>
+  <si>
+    <t>Lot Number QA File</t>
+  </si>
+  <si>
+    <t>Ensure all OFIs are closed and included within QA file</t>
+  </si>
+  <si>
+    <t>At completion of Lot</t>
+  </si>
+  <si>
+    <t>Delivery dockets</t>
+  </si>
+  <si>
+    <t>Delivery Dockets to be included in QA file</t>
+  </si>
+  <si>
+    <t>Delivery Dockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As-builts </t>
+  </si>
+  <si>
+    <t>Red pen mark up drawings to be included in QA file</t>
+  </si>
+  <si>
+    <t>At the completion of the Lot of work</t>
+  </si>
+  <si>
+    <t>Asbuilt Drawing</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -465,127 +692,1528 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
       <c r="J2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
-        <v xml:space="preserve"> - </v>
+        <v>1.1 - Material Compliance</v>
       </c>
       <c r="K2" t="str">
-        <f>"Acceptance / Conformance Criteria - "&amp;C2</f>
-        <v xml:space="preserve">Acceptance / Conformance Criteria - </v>
+        <f>"ACTION (Hold, Monitor, Witness) - "&amp;C2</f>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
       </c>
       <c r="L2" t="str">
-        <f>"Standard / Specification - "&amp;D2</f>
-        <v xml:space="preserve">Standard / Specification - </v>
+        <f>"Detail - "&amp;D2</f>
+        <v>Detail - Ensure the supplied paint system meets the requirements as per the specification. .</v>
       </c>
       <c r="M2" t="str">
-        <f>"Verifying Document - "&amp;E2</f>
-        <v xml:space="preserve">Verifying Document - </v>
+        <f>"Frequency - "&amp;E2</f>
+        <v>Frequency - Prior to commencement</v>
       </c>
       <c r="N2" t="str">
-        <f>"Frequency - "&amp;F2</f>
-        <v xml:space="preserve">Frequency - </v>
+        <f>"Inspection / Test Method submission, visual inspection, testing, measure, review - "&amp;F2</f>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
       </c>
       <c r="O2" t="str">
-        <f>"Verification Activity: Activity - "&amp;G2</f>
-        <v xml:space="preserve">Verification Activity: Activity - </v>
+        <f>"Conformance Criteria - "&amp;G2</f>
+        <v>Conformance Criteria - NZTA S10 Approved paint system to be signed off by the Design Engineer</v>
       </c>
       <c r="P2" t="str">
-        <f>"Verification Activity: By - "&amp;H2</f>
-        <v xml:space="preserve">Verification Activity: By - </v>
+        <f>"Records - "&amp;H2</f>
+        <v>Records - Painting system manufacturers records</v>
       </c>
       <c r="R2" t="str" cm="1">
-        <f t="array" ref="R2:R8">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,J2:P40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>-</v>
+        <f t="array" ref="R2:R127">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,J2:P40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>1.1 - Material Compliance</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J19" si="0">A3&amp;" - "&amp;B3</f>
+        <v>1.1.1 - Material Compliance</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K19" si="1">"ACTION (Hold, Monitor, Witness) - "&amp;C3</f>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L19" si="2">"Detail - "&amp;D3</f>
+        <v>Detail - Confirmation of Design life not less than 10 years</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M19" si="3">"Frequency - "&amp;E3</f>
+        <v>Frequency - Prior to commencement</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N19" si="4">"Inspection / Test Method submission, visual inspection, testing, measure, review - "&amp;F3</f>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O19" si="5">"Conformance Criteria - "&amp;G3</f>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P19" si="6">"Records - "&amp;H3</f>
+        <v xml:space="preserve">Records - </v>
+      </c>
       <c r="R3" t="str">
-        <v>Acceptance / Conformance Criteria -</v>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1.2 - Material Compliance</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Confirmation of cleaning product (to align with TDS) -  Pressure washing of substrate no greater than 2700psi.</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Prior to commencement</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
       <c r="R4" t="str">
-        <v>Standard / Specification -</v>
+        <v>Detail - Ensure the supplied paint system meets the requirements as per the specification. .</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>1.1.3 - Material Compliance</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Detail - Collection of names, experience and qualifications of coating applicators </v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Prior to commencement</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="5"/>
+        <v>Conformance Criteria - NZTA S/10 4.1 c</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="6"/>
+        <v>Records - Applicator's detail submission</v>
+      </c>
       <c r="R5" t="str">
-        <v>Verifying Document -</v>
+        <v>Frequency - Prior to commencement</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6">
+        <v>1.2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>1.2 - Submit Frequency</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Subcontractor to produce specification for the extent and frequency of testing for Design Engineer for approval</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Prior to commencement</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document submission</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="6"/>
+        <v>Records - Approved subcontractor testing schedule</v>
+      </c>
       <c r="R6" t="str">
-        <v>Frequency -</v>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7">
+        <v>2.1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2.1 - Contruction </v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Visual inspection to ensure it is dust free, clean and repaired prior to application. _x000D_
+_x000D_
+Any fairing coat/grout that is used to achieve the F5 finish will need the required curing time as per product specification.</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Prior to commencement</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Visual inspection and Document review</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="5"/>
+        <v>Conformance Criteria - Ensure PCP and Snag List for the structure are both signed off_x000D_
+_x000D_
+BBO sign off for Pre paint inspection to ensure F5 finish has been achieved</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v>Records - Completed PCP CHAR(AMP) Snag List</v>
+      </c>
       <c r="R7" t="str">
-        <v>Verification Activity: Activity -</v>
+        <v>Conformance Criteria - NZTA S10 Approved paint system to be signed off by the Design Engineer</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2 - Pre-paint cleaning and substrate verifications</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Demonstration of substrate cleaned all dust, dirt and other surface contaminants must be removed. Using manufacturer’s approved surface cleaner</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Before painting</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Inspection / Test Method submission, visual inspection, testing, measure, review - Visual inspection </v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
       <c r="R8" t="str">
-        <v>Verification Activity: By -</v>
+        <v>Records - Painting system manufacturers records</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>2.3 - Construction - pre paint checks</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Pre-paint checks_x000D_
+_x000D_
+Relative Humidity (Measured), Air Temperature (Measured), Surface Temperature (Measured), Dew Point (Calculated) Surface minus Dew Point (Calculated), Dry Surface (Visual Inspection)</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Before painting</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Measuring Devices</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="5"/>
+        <v>Conformance Criteria - QA Checksheets</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R9" t="str">
+        <v>1.1.1 - Material Compliance</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10">
+        <v>2.4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>2.4 - Construction</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Design Engineer to be advised when painting is occuring so they can visit site and do a visual inspection</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - During Painting</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Visual Inspection</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R10" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11">
+        <v>2.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" s="1"/>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>2.5 - Construction</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - _x000D_
+_x000D_
+ Demonstration of surface moisture conditions. -            1 test every 46m² or for every time painting</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Before painting (minimum 28 days after concrete, grout and fairing coat has cured)</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Inspection / Test Method submission, visual inspection, testing, measure, review - </v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="5"/>
+        <v>Conformance Criteria - NZTA S/10 8.8 refers to ASTM D4263</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R11" t="str">
+        <v>Detail - Confirmation of Design life not less than 10 years</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="A12">
+        <v>2.6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>2.6 - Painting</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Ensure dust control throughout application and curing. Co-ordinate other site activites that may generate dust to stop until the paint is dry.</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - Before and During painting</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Visual inspection</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="5"/>
+        <v>Conformance Criteria - No dust</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R12" t="str">
+        <v>Frequency - Prior to commencement</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="20" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>2.7 - Painting</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Ensure subcontractor records the date, type, location and extent of all  coatings</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - During Painting</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Drawings</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R13" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>2.8 - Painting</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Recoating time as per manufacturers specifications, and weather conditions.</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - After painting</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document Review</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R14" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>2.9 - Completed paint system</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - 1. Dry Film Thickness_x000D_
+2. Bond Strength</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - 14 days after painting</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - NZTA S10 Section 13.2</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="5"/>
+        <v>Conformance Criteria - DFT minimum of 100 microns_x000D_
+Bond strength minimum 2MPa</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="6"/>
+        <v>Records - IANZ Test Results or other approved</v>
+      </c>
+      <c r="R15" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.1 - Completed paint system</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Detail - Post works inspection  with BBO Sign Off_x000D_
+_x000D_
+</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - At completion of painting</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Inspection / Test Method submission, visual inspection, testing, measure, review - Dry Film Thickness </v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="5"/>
+        <v>Conformance Criteria - The completed paint system or coating shall be of uniform thickness, free of runs, sags, pinholes and bubbles, mudcracking, dry overspray, grit inclusion etc. All such imperfections shall be removed or made good to the satisfaction of the Design Engineer.</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R16" t="str">
+        <v>1.1.2 - Material Compliance</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>3.1 - Lot Number QA File</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Ensure all OFIs are closed and included within QA file</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - At completion of Lot</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document Review</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Records - </v>
+      </c>
+      <c r="R17" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2 - Delivery dockets</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Delivery Dockets to be included in QA file</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - At completion of Lot</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document Review</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="6"/>
+        <v>Records - Delivery Dockets</v>
+      </c>
+      <c r="R18" t="str">
+        <v>Detail - Confirmation of cleaning product (to align with TDS) -  Pressure washing of substrate no greater than 2700psi.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3.2 - As-builts </v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>Detail - Red pen mark up drawings to be included in QA file</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v>Frequency - At the completion of the Lot of work</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Drawings</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Conformance Criteria - </v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="6"/>
+        <v>Records - Asbuilt Drawing</v>
+      </c>
+      <c r="R19" t="str">
+        <v>Frequency - Prior to commencement</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
+      <c r="R22" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" t="str">
+        <v>1.1.3 - Material Compliance</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" t="str">
+        <v>Detail - Collection of names, experience and qualifications of coating applicators</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" t="str">
+        <v>Frequency - Prior to commencement</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document review</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" t="str">
+        <v>Conformance Criteria - NZTA S/10 4.1 c</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" t="str">
+        <v>Records - Applicator's detail submission</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" t="str">
+        <v>1.2 - Submit Frequency</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" t="str">
+        <v>Detail - Subcontractor to produce specification for the extent and frequency of testing for Design Engineer for approval</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" t="str">
+        <v>Frequency - Prior to commencement</v>
+      </c>
+    </row>
+    <row r="34" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document submission</v>
+      </c>
+    </row>
+    <row r="35" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="36" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" t="str">
+        <v>Records - Approved subcontractor testing schedule</v>
+      </c>
+    </row>
+    <row r="37" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" t="str">
+        <v>2.1 - Contruction</v>
+      </c>
+    </row>
+    <row r="38" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="39" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" t="str">
+        <v>Detail - Visual inspection to ensure it is dust free, clean and repaired prior to application. 
+Any fairing coat/grout that is used to achieve the F5 finish will need the required curing time as per product specification.</v>
+      </c>
+    </row>
+    <row r="40" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" t="str">
+        <v>Frequency - Prior to commencement</v>
+      </c>
+    </row>
+    <row r="41" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Visual inspection and Document review</v>
+      </c>
+    </row>
+    <row r="42" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" t="str">
+        <v>Conformance Criteria - Ensure PCP and Snag List for the structure are both signed off
+BBO sign off for Pre paint inspection to ensure F5 finish has been achieved</v>
+      </c>
+    </row>
+    <row r="43" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" t="str">
+        <v>Records - Completed PCP CHAR(AMP) Snag List</v>
+      </c>
+    </row>
+    <row r="44" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" t="str">
+        <v>2.2 - Pre-paint cleaning and substrate verifications</v>
+      </c>
+    </row>
+    <row r="45" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R45" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="46" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" t="str">
+        <v>Detail - Demonstration of substrate cleaned all dust, dirt and other surface contaminants must be removed. Using manufacturer’s approved surface cleaner</v>
+      </c>
+    </row>
+    <row r="47" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R47" t="str">
+        <v>Frequency - Before painting</v>
+      </c>
+    </row>
+    <row r="48" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R48" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Visual inspection</v>
+      </c>
+    </row>
+    <row r="49" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R49" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="50" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R50" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="51" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R51" t="str">
+        <v>2.3 - Construction - pre paint checks</v>
+      </c>
+    </row>
+    <row r="52" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R52" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="53" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R53" t="str">
+        <v>Detail - Pre-paint checks
+Relative Humidity (Measured), Air Temperature (Measured), Surface Temperature (Measured), Dew Point (Calculated) Surface minus Dew Point (Calculated), Dry Surface (Visual Inspection)</v>
+      </c>
+    </row>
+    <row r="54" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R54" t="str">
+        <v>Frequency - Before painting</v>
+      </c>
+    </row>
+    <row r="55" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R55" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Measuring Devices</v>
+      </c>
+    </row>
+    <row r="56" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R56" t="str">
+        <v>Conformance Criteria - QA Checksheets</v>
+      </c>
+    </row>
+    <row r="57" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R57" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="58" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R58" t="str">
+        <v>2.4 - Construction</v>
+      </c>
+    </row>
+    <row r="59" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R59" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="60" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R60" t="str">
+        <v>Detail - Design Engineer to be advised when painting is occuring so they can visit site and do a visual inspection</v>
+      </c>
+    </row>
+    <row r="61" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R61" t="str">
+        <v>Frequency - During Painting</v>
+      </c>
+    </row>
+    <row r="62" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R62" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Visual Inspection</v>
+      </c>
+    </row>
+    <row r="63" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R63" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="64" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R64" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R65" t="str">
+        <v>2.5 - Construction</v>
+      </c>
+    </row>
+    <row r="66" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R66" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="67" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R67" t="str">
+        <v>Detail - 
+ Demonstration of surface moisture conditions. -            1 test every 46m² or for every time painting</v>
+      </c>
+    </row>
+    <row r="68" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R68" t="str">
+        <v>Frequency - Before painting (minimum 28 days after concrete, grout and fairing coat has cured)</v>
+      </c>
+    </row>
+    <row r="69" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R69" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review -</v>
+      </c>
+    </row>
+    <row r="70" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R70" t="str">
+        <v>Conformance Criteria - NZTA S/10 8.8 refers to ASTM D4263</v>
+      </c>
+    </row>
+    <row r="71" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R71" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="72" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R72" t="str">
+        <v>2.6 - Painting</v>
+      </c>
+    </row>
+    <row r="73" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R73" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="74" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R74" t="str">
+        <v>Detail - Ensure dust control throughout application and curing. Co-ordinate other site activites that may generate dust to stop until the paint is dry.</v>
+      </c>
+    </row>
+    <row r="75" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R75" t="str">
+        <v>Frequency - Before and During painting</v>
+      </c>
+    </row>
+    <row r="76" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R76" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Visual inspection</v>
+      </c>
+    </row>
+    <row r="77" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R77" t="str">
+        <v>Conformance Criteria - No dust</v>
+      </c>
+    </row>
+    <row r="78" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R78" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="79" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R79" t="str">
+        <v>2.7 - Painting</v>
+      </c>
+    </row>
+    <row r="80" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R80" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="81" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R81" t="str">
+        <v>Detail - Ensure subcontractor records the date, type, location and extent of all  coatings</v>
+      </c>
+    </row>
+    <row r="82" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R82" t="str">
+        <v>Frequency - During Painting</v>
+      </c>
+    </row>
+    <row r="83" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R83" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Drawings</v>
+      </c>
+    </row>
+    <row r="84" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R84" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="85" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R85" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="86" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R86" t="str">
+        <v>2.8 - Painting</v>
+      </c>
+    </row>
+    <row r="87" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R87" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="88" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R88" t="str">
+        <v>Detail - Recoating time as per manufacturers specifications, and weather conditions.</v>
+      </c>
+    </row>
+    <row r="89" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R89" t="str">
+        <v>Frequency - After painting</v>
+      </c>
+    </row>
+    <row r="90" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R90" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document Review</v>
+      </c>
+    </row>
+    <row r="91" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R91" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="92" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R92" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="93" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R93" t="str">
+        <v>2.9 - Completed paint system</v>
+      </c>
+    </row>
+    <row r="94" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R94" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="95" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R95" t="str">
+        <v>Detail - 1. Dry Film Thickness
+2. Bond Strength</v>
+      </c>
+    </row>
+    <row r="96" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R96" t="str">
+        <v>Frequency - 14 days after painting</v>
+      </c>
+    </row>
+    <row r="97" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R97" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - NZTA S10 Section 13.2</v>
+      </c>
+    </row>
+    <row r="98" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R98" t="str">
+        <v>Conformance Criteria - DFT minimum of 100 microns
+Bond strength minimum 2MPa</v>
+      </c>
+    </row>
+    <row r="99" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R99" t="str">
+        <v>Records - IANZ Test Results or other approved</v>
+      </c>
+    </row>
+    <row r="100" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R100" t="str">
+        <v>2.1 - Completed paint system</v>
+      </c>
+    </row>
+    <row r="101" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R101" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="102" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R102" t="str">
+        <v>Detail - Post works inspection  with BBO Sign Off</v>
+      </c>
+    </row>
+    <row r="103" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R103" t="str">
+        <v>Frequency - At completion of painting</v>
+      </c>
+    </row>
+    <row r="104" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R104" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Dry Film Thickness</v>
+      </c>
+    </row>
+    <row r="105" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R105" t="str">
+        <v>Conformance Criteria - The completed paint system or coating shall be of uniform thickness, free of runs, sags, pinholes and bubbles, mudcracking, dry overspray, grit inclusion etc. All such imperfections shall be removed or made good to the satisfaction of the Design Engineer.</v>
+      </c>
+    </row>
+    <row r="106" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R106" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="107" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R107" t="str">
+        <v>3.1 - Lot Number QA File</v>
+      </c>
+    </row>
+    <row r="108" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R108" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="109" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R109" t="str">
+        <v>Detail - Ensure all OFIs are closed and included within QA file</v>
+      </c>
+    </row>
+    <row r="110" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R110" t="str">
+        <v>Frequency - At completion of Lot</v>
+      </c>
+    </row>
+    <row r="111" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R111" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document Review</v>
+      </c>
+    </row>
+    <row r="112" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R112" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="113" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R113" t="str">
+        <v>Records -</v>
+      </c>
+    </row>
+    <row r="114" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R114" t="str">
+        <v>3.2 - Delivery dockets</v>
+      </c>
+    </row>
+    <row r="115" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R115" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="116" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R116" t="str">
+        <v>Detail - Delivery Dockets to be included in QA file</v>
+      </c>
+    </row>
+    <row r="117" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R117" t="str">
+        <v>Frequency - At completion of Lot</v>
+      </c>
+    </row>
+    <row r="118" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R118" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Document Review</v>
+      </c>
+    </row>
+    <row r="119" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R119" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="120" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R120" t="str">
+        <v>Records - Delivery Dockets</v>
+      </c>
+    </row>
+    <row r="121" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R121" t="str">
+        <v>3.2 - As-builts</v>
+      </c>
+    </row>
+    <row r="122" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R122" t="str">
+        <v>ACTION (Hold, Monitor, Witness) - HP</v>
+      </c>
+    </row>
+    <row r="123" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R123" t="str">
+        <v>Detail - Red pen mark up drawings to be included in QA file</v>
+      </c>
+    </row>
+    <row r="124" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R124" t="str">
+        <v>Frequency - At the completion of the Lot of work</v>
+      </c>
+    </row>
+    <row r="125" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R125" t="str">
+        <v>Inspection / Test Method submission, visual inspection, testing, measure, review - Drawings</v>
+      </c>
+    </row>
+    <row r="126" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R126" t="str">
+        <v>Conformance Criteria -</v>
+      </c>
+    </row>
+    <row r="127" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R127" t="str">
+        <v>Records - Asbuilt Drawing</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
